--- a/Libraries/Vehicle/Tire/MFEval/sm_car_data_Tire_Tire2x.xlsx
+++ b/Libraries/Vehicle/Tire/MFEval/sm_car_data_Tire_Tire2x.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Tire\MFEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD024469-41F2-4CDC-B944-327FFB071D81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4395C1C9-6FBC-453F-BB2B-FC300EDF2CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="676" xr2:uid="{77C5F530-BF82-43C8-8187-4F4154957BDB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="676" activeTab="1" xr2:uid="{77C5F530-BF82-43C8-8187-4F4154957BDB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bus_Makhulu_2x" sheetId="3" r:id="rId1"/>
+    <sheet name="Tire2x_270_70R22" sheetId="3" r:id="rId1"/>
+    <sheet name="Tire2x_430_50R38" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Units</t>
   </si>
@@ -78,10 +81,13 @@
     <t>Center-to-center gap between tires</t>
   </si>
   <si>
-    <t>Tire2x_Bus_Makhulu</t>
-  </si>
-  <si>
     <t>Tire</t>
+  </si>
+  <si>
+    <t>Tire2x_430_50R38</t>
+  </si>
+  <si>
+    <t>Tire2x_270_70R22</t>
   </si>
 </sst>
 </file>
@@ -193,7 +199,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -530,12 +557,12 @@
   </sheetPr>
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,7 +608,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -611,7 +638,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -814,6 +841,314 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C15:C18 A15:A18 C4:D4 C5:C7 A4:A7">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58ED665-FE53-462F-9844-10C98476C9A9}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AA20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="17">
+        <v>0.4572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C15:C18 A15:A18 C4:D4 C5:C7 A4:A7">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>

--- a/Libraries/Vehicle/Tire/MFEval/sm_car_data_Tire_Tire2x.xlsx
+++ b/Libraries/Vehicle/Tire/MFEval/sm_car_data_Tire_Tire2x.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Tire\MFEval\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Tire\MFEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4395C1C9-6FBC-453F-BB2B-FC300EDF2CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C105C9-48FC-4B0F-A999-D143F540F2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="676" activeTab="1" xr2:uid="{77C5F530-BF82-43C8-8187-4F4154957BDB}"/>
+    <workbookView xWindow="3450" yWindow="2715" windowWidth="20595" windowHeight="11235" tabRatio="676" activeTab="2" xr2:uid="{77C5F530-BF82-43C8-8187-4F4154957BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tire2x_270_70R22" sheetId="3" r:id="rId1"/>
     <sheet name="Tire2x_430_50R38" sheetId="5" r:id="rId2"/>
+    <sheet name="Tire2x_214_10R39" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
   <si>
     <t>Units</t>
   </si>
@@ -88,6 +89,9 @@
   </si>
   <si>
     <t>Tire2x_270_70R22</t>
+  </si>
+  <si>
+    <t>Tire2x_214_10R39</t>
   </si>
 </sst>
 </file>
@@ -155,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -168,8 +172,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -178,20 +181,17 @@
     <xf numFmtId="11" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -256,9 +256,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -296,7 +296,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -402,7 +402,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -544,7 +544,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -555,7 +555,7 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -565,20 +565,20 @@
       <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -598,260 +598,155 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="18" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="16" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="16" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="16" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="17">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="15">
         <f>0.1359705*2</f>
         <v>0.27194099999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="12"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="12"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="12"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="12"/>
+      <c r="H20" s="13"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C15:C18 A15:A18 C4:D4 C5:C7 A4:A7">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="A15:A20">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="C4:D4 A4:A7 C5:C7 C15:C18">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -864,9 +759,9 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
@@ -874,20 +769,20 @@
       <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -907,258 +802,357 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="18" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="16" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="16" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="16" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="17">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="15">
         <v>0.4572</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="12"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="12"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="12"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="12"/>
+      <c r="H20" s="13"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C15:C18 A15:A18 C4:D4 C5:C7 A4:A7">
+  <conditionalFormatting sqref="A15:A20">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:D4 A4:A7 C5:C7 C15:C18">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEF684E-FA2D-4DC0-86E1-9B693C439332}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="15">
+        <f>0.326</f>
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="12"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="12"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="12"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="12"/>
+      <c r="H20" s="13"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A15:A20">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
+  <conditionalFormatting sqref="C4:D4 A4:A7 C5:C7 C15:C18">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
